--- a/Code/Results/Cases/Case_1_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_129/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005790763808445121</v>
+        <v>0.001362816872990891</v>
       </c>
       <c r="E2">
-        <v>1.567431669290571</v>
+        <v>0.4336984297763564</v>
       </c>
       <c r="F2">
-        <v>1.788824380448077</v>
+        <v>0.716057570907509</v>
       </c>
       <c r="G2">
-        <v>0.0007158969820139412</v>
+        <v>0.002324725458065281</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.977551973917684</v>
+        <v>2.355210718842727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004810053280278836</v>
+        <v>0.001187382742548593</v>
       </c>
       <c r="E3">
-        <v>1.336160509687218</v>
+        <v>0.377859479011633</v>
       </c>
       <c r="F3">
-        <v>1.540579415516149</v>
+        <v>0.6567163053089047</v>
       </c>
       <c r="G3">
-        <v>0.0007235385202464064</v>
+        <v>0.002329461130132879</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.144303722186692</v>
+        <v>2.156718067769077</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004246805412979171</v>
+        <v>0.001080080273940354</v>
       </c>
       <c r="E4">
-        <v>1.198368755848335</v>
+        <v>0.3437100912600926</v>
       </c>
       <c r="F4">
-        <v>1.39156792097431</v>
+        <v>0.6207120828670298</v>
       </c>
       <c r="G4">
-        <v>0.0007283324737224553</v>
+        <v>0.00233251953125169</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.644473965290103</v>
+        <v>2.036265997455303</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004025310140479021</v>
+        <v>0.001036432188708858</v>
       </c>
       <c r="E5">
-        <v>1.14309955668044</v>
+        <v>0.3298250761745436</v>
       </c>
       <c r="F5">
-        <v>1.33157839699696</v>
+        <v>0.6061468742205847</v>
       </c>
       <c r="G5">
-        <v>0.0007303138689007982</v>
+        <v>0.002333803886739488</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.443320970959178</v>
+        <v>1.987532592803802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003988969621664396</v>
+        <v>0.00102918845908917</v>
       </c>
       <c r="E6">
-        <v>1.133970667797598</v>
+        <v>0.3275212721867717</v>
       </c>
       <c r="F6">
-        <v>1.321658118355685</v>
+        <v>0.6037347334826109</v>
       </c>
       <c r="G6">
-        <v>0.0007306446175812151</v>
+        <v>0.002334019454191858</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.410060780376625</v>
+        <v>1.979461519004019</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004243787861385684</v>
+        <v>0.001079491336421157</v>
       </c>
       <c r="E7">
-        <v>1.197620022311483</v>
+        <v>0.3435227109891485</v>
       </c>
       <c r="F7">
-        <v>1.3907560646267</v>
+        <v>0.6205152211821741</v>
       </c>
       <c r="G7">
-        <v>0.0007283590801889546</v>
+        <v>0.002332536698358002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.641751433936406</v>
+        <v>2.035607345351195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005443401231023159</v>
+        <v>0.001302225394198331</v>
       </c>
       <c r="E8">
-        <v>1.486702222600158</v>
+        <v>0.4144150822295103</v>
       </c>
       <c r="F8">
-        <v>1.702442448580072</v>
+        <v>0.6955060775011219</v>
       </c>
       <c r="G8">
-        <v>0.0007185119886451124</v>
+        <v>0.002326327130478486</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.687526064025576</v>
+        <v>2.286471316272923</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008199630958760196</v>
+        <v>0.001743495442950049</v>
       </c>
       <c r="E9">
-        <v>2.096339606710956</v>
+        <v>0.5546583365364199</v>
       </c>
       <c r="F9">
-        <v>2.347128541868827</v>
+        <v>0.8460728912957336</v>
       </c>
       <c r="G9">
-        <v>0.0006998995818880339</v>
+        <v>0.00231533923825636</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.854162298617894</v>
+        <v>2.79001036887513</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01063539081207487</v>
+        <v>0.002072145766176092</v>
       </c>
       <c r="E10">
-        <v>2.586060833366645</v>
+        <v>0.6586520499176061</v>
       </c>
       <c r="F10">
-        <v>2.851605898883406</v>
+        <v>0.9589651656520743</v>
       </c>
       <c r="G10">
-        <v>0.0006864679269853458</v>
+        <v>0.002307982165639402</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.553113749089505</v>
+        <v>3.167490004210549</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01188174520359908</v>
+        <v>0.002223006804682015</v>
       </c>
       <c r="E11">
-        <v>2.822475958477014</v>
+        <v>0.7062161564137313</v>
       </c>
       <c r="F11">
-        <v>3.090660193508569</v>
+        <v>1.010845266279489</v>
       </c>
       <c r="G11">
-        <v>0.0006803599163346288</v>
+        <v>0.002304788697645446</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.35932114213153</v>
+        <v>3.340953389518347</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0123789907304328</v>
+        <v>0.002280360919042934</v>
       </c>
       <c r="E12">
-        <v>2.914448926120798</v>
+        <v>0.7242680764979212</v>
       </c>
       <c r="F12">
-        <v>3.182852286963396</v>
+        <v>1.030568565905213</v>
       </c>
       <c r="G12">
-        <v>0.0006780420884714422</v>
+        <v>0.00230360130796144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.67043865151464</v>
+        <v>3.406898250946426</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01227067534370718</v>
+        <v>0.002267998111644687</v>
       </c>
       <c r="E13">
-        <v>2.89452307201671</v>
+        <v>0.7203784183419941</v>
       </c>
       <c r="F13">
-        <v>3.162917655983051</v>
+        <v>1.026317325067708</v>
       </c>
       <c r="G13">
-        <v>0.0006785415834693713</v>
+        <v>0.002303856061437034</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.60315633985687</v>
+        <v>3.392684256368284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01192211160203271</v>
+        <v>0.002227720644000897</v>
       </c>
       <c r="E14">
-        <v>2.82999038538928</v>
+        <v>0.7077004683360428</v>
       </c>
       <c r="F14">
-        <v>3.098209602540265</v>
+        <v>1.012466350817789</v>
       </c>
       <c r="G14">
-        <v>0.0006801693578425448</v>
+        <v>0.002304690572135448</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.38479363018217</v>
+        <v>3.346373501059304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01171208091424347</v>
+        <v>0.002203079946879072</v>
       </c>
       <c r="E15">
-        <v>2.790797357017922</v>
+        <v>0.6999402271471666</v>
       </c>
       <c r="F15">
-        <v>3.058800812428132</v>
+        <v>1.003992371776604</v>
       </c>
       <c r="G15">
-        <v>0.0006811656134807498</v>
+        <v>0.002305204582881486</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.25183258971805</v>
+        <v>3.31804063982969</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01055715331135509</v>
+        <v>0.002062316590965452</v>
       </c>
       <c r="E16">
-        <v>2.570924132985738</v>
+        <v>0.6555490890936539</v>
       </c>
       <c r="F16">
-        <v>2.83619934893477</v>
+        <v>0.9555854069585621</v>
       </c>
       <c r="G16">
-        <v>0.0006868667237525978</v>
+        <v>0.002308193939339283</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.501180815391194</v>
+        <v>3.15618949106215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009887510818373357</v>
+        <v>0.00197633221307747</v>
       </c>
       <c r="E17">
-        <v>2.439845517651136</v>
+        <v>0.6283848123191689</v>
       </c>
       <c r="F17">
-        <v>2.702281680383749</v>
+        <v>0.9260251098173171</v>
       </c>
       <c r="G17">
-        <v>0.0006903613416543507</v>
+        <v>0.00231006697917523</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.049894410862919</v>
+        <v>3.057351167739625</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.009514980397419492</v>
+        <v>0.001927002019428414</v>
       </c>
       <c r="E18">
-        <v>2.365701617315594</v>
+        <v>0.6127846016899667</v>
       </c>
       <c r="F18">
-        <v>2.626135773823904</v>
+        <v>0.9090720897889355</v>
       </c>
       <c r="G18">
-        <v>0.0006923719131366468</v>
+        <v>0.002311158739864443</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.79339336534423</v>
+        <v>3.000665896692567</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009390873476405659</v>
+        <v>0.001910320321343306</v>
       </c>
       <c r="E19">
-        <v>2.340799178541062</v>
+        <v>0.6075066487270959</v>
       </c>
       <c r="F19">
-        <v>2.600497178597323</v>
+        <v>0.9033404933890523</v>
       </c>
       <c r="G19">
-        <v>0.0006930528958367493</v>
+        <v>0.002311530874994706</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.707044974998837</v>
+        <v>2.981501180670932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009957453278943262</v>
+        <v>0.001985472159223178</v>
       </c>
       <c r="E20">
-        <v>2.453666606034659</v>
+        <v>0.6312739907923657</v>
       </c>
       <c r="F20">
-        <v>2.716444424735187</v>
+        <v>0.9291667394193155</v>
       </c>
       <c r="G20">
-        <v>0.0006899893099113237</v>
+        <v>0.002309866097719104</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.09761035659443</v>
+        <v>3.067855660969713</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01202375752392726</v>
+        <v>0.002239544717282271</v>
       </c>
       <c r="E21">
-        <v>2.848874331676157</v>
+        <v>0.7114231643078313</v>
       </c>
       <c r="F21">
-        <v>3.117168067285291</v>
+        <v>1.016532600446681</v>
       </c>
       <c r="G21">
-        <v>0.0006796914190452854</v>
+        <v>0.002304444862416544</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.44876478360027</v>
+        <v>3.359969033151742</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01352510470984924</v>
+        <v>0.002406930070236513</v>
       </c>
       <c r="E22">
-        <v>3.12174648462593</v>
+        <v>0.7640425772890183</v>
       </c>
       <c r="F22">
-        <v>3.388961998781184</v>
+        <v>1.074083505283085</v>
       </c>
       <c r="G22">
-        <v>0.0006729296473790019</v>
+        <v>0.002301029401397889</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.36640331357131</v>
+        <v>3.552389396738079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01270784654417767</v>
+        <v>0.002317460720473008</v>
       </c>
       <c r="E23">
-        <v>2.974583373186718</v>
+        <v>0.7359357237643849</v>
       </c>
       <c r="F23">
-        <v>3.242882952692611</v>
+        <v>1.043325465387227</v>
       </c>
       <c r="G23">
-        <v>0.0006765434038108133</v>
+        <v>0.002302840664476058</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.87308314478946</v>
+        <v>3.449550766765867</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00992579388333148</v>
+        <v>0.001981339669695714</v>
       </c>
       <c r="E24">
-        <v>2.447414342894533</v>
+        <v>0.6299677408470501</v>
       </c>
       <c r="F24">
-        <v>2.710038836878766</v>
+        <v>0.9277462792848041</v>
       </c>
       <c r="G24">
-        <v>0.0006901575004871717</v>
+        <v>0.002309956869656864</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.076028865477952</v>
+        <v>3.06310614965048</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007395808202533161</v>
+        <v>0.001623465342587949</v>
       </c>
       <c r="E25">
-        <v>1.925385879019302</v>
+        <v>0.5165662124021964</v>
       </c>
       <c r="F25">
-        <v>2.168159383477558</v>
+        <v>0.804951376280016</v>
       </c>
       <c r="G25">
-        <v>0.0007048771891773657</v>
+        <v>0.002318185404698143</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.252194421940544</v>
+        <v>2.652501122830699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_129/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001362816872990891</v>
+        <v>0.005790763808336763</v>
       </c>
       <c r="E2">
-        <v>0.4336984297763564</v>
+        <v>1.567431669290599</v>
       </c>
       <c r="F2">
-        <v>0.716057570907509</v>
+        <v>1.788824380448105</v>
       </c>
       <c r="G2">
-        <v>0.002324725458065281</v>
+        <v>0.0007158969819686038</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.355210718842727</v>
+        <v>5.977551973917741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001187382742548593</v>
+        <v>0.004810053280051463</v>
       </c>
       <c r="E3">
-        <v>0.377859479011633</v>
+        <v>1.336160509687247</v>
       </c>
       <c r="F3">
-        <v>0.6567163053089047</v>
+        <v>1.540579415516163</v>
       </c>
       <c r="G3">
-        <v>0.002329461130132879</v>
+        <v>0.0007235385202731814</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.156718067769077</v>
+        <v>5.144303722186748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001080080273940354</v>
+        <v>0.004246805412789101</v>
       </c>
       <c r="E4">
-        <v>0.3437100912600926</v>
+        <v>1.19836875584835</v>
       </c>
       <c r="F4">
-        <v>0.6207120828670298</v>
+        <v>1.39156792097431</v>
       </c>
       <c r="G4">
-        <v>0.00233251953125169</v>
+        <v>0.0007283324737220104</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.036265997455303</v>
+        <v>4.64447396529016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001036432188708858</v>
+        <v>0.004025310140482574</v>
       </c>
       <c r="E5">
-        <v>0.3298250761745436</v>
+        <v>1.143099556680454</v>
       </c>
       <c r="F5">
-        <v>0.6061468742205847</v>
+        <v>1.331578396996946</v>
       </c>
       <c r="G5">
-        <v>0.002333803886739488</v>
+        <v>0.0007303138689014644</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.987532592803802</v>
+        <v>4.443320970959121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00102918845908917</v>
+        <v>0.003988969621550709</v>
       </c>
       <c r="E6">
-        <v>0.3275212721867717</v>
+        <v>1.133970667797612</v>
       </c>
       <c r="F6">
-        <v>0.6037347334826109</v>
+        <v>1.321658118355671</v>
       </c>
       <c r="G6">
-        <v>0.002334019454191858</v>
+        <v>0.0007306446175404968</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.979461519004019</v>
+        <v>4.410060780376625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.001079491336421157</v>
+        <v>0.004243787861193837</v>
       </c>
       <c r="E7">
-        <v>0.3435227109891485</v>
+        <v>1.19762002231144</v>
       </c>
       <c r="F7">
-        <v>0.6205152211821741</v>
+        <v>1.390756064626686</v>
       </c>
       <c r="G7">
-        <v>0.002332536698358002</v>
+        <v>0.0007283590801757514</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.035607345351195</v>
+        <v>4.641751433936406</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001302225394198331</v>
+        <v>0.005443401231106648</v>
       </c>
       <c r="E8">
-        <v>0.4144150822295103</v>
+        <v>1.486702222600144</v>
       </c>
       <c r="F8">
-        <v>0.6955060775011219</v>
+        <v>1.702442448580072</v>
       </c>
       <c r="G8">
-        <v>0.002326327130478486</v>
+        <v>0.0007185119885999402</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.286471316272923</v>
+        <v>5.68752606402569</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001743495442950049</v>
+        <v>0.008199630958760196</v>
       </c>
       <c r="E9">
-        <v>0.5546583365364199</v>
+        <v>2.096339606710984</v>
       </c>
       <c r="F9">
-        <v>0.8460728912957336</v>
+        <v>2.347128541868813</v>
       </c>
       <c r="G9">
-        <v>0.00231533923825636</v>
+        <v>0.0006998995818341907</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.79001036887513</v>
+        <v>7.85416229861778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002072145766176092</v>
+        <v>0.01063539081229159</v>
       </c>
       <c r="E10">
-        <v>0.6586520499176061</v>
+        <v>2.586060833366659</v>
       </c>
       <c r="F10">
-        <v>0.9589651656520743</v>
+        <v>2.851605898883406</v>
       </c>
       <c r="G10">
-        <v>0.002307982165639402</v>
+        <v>0.0006864679269856881</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.167490004210549</v>
+        <v>9.553113749089562</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002223006804682015</v>
+        <v>0.01188174520348895</v>
       </c>
       <c r="E11">
-        <v>0.7062161564137313</v>
+        <v>2.822475958476986</v>
       </c>
       <c r="F11">
-        <v>1.010845266279489</v>
+        <v>3.090660193508569</v>
       </c>
       <c r="G11">
-        <v>0.002304788697645446</v>
+        <v>0.0006803599163909574</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.340953389518347</v>
+        <v>10.35932114213159</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.002280360919042934</v>
+        <v>0.0123789907304328</v>
       </c>
       <c r="E12">
-        <v>0.7242680764979212</v>
+        <v>2.914448926120798</v>
       </c>
       <c r="F12">
-        <v>1.030568565905213</v>
+        <v>3.182852286963424</v>
       </c>
       <c r="G12">
-        <v>0.00230360130796144</v>
+        <v>0.0006780420884711039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.406898250946426</v>
+        <v>10.67043865151464</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002267998111644687</v>
+        <v>0.01227067534381021</v>
       </c>
       <c r="E13">
-        <v>0.7203784183419941</v>
+        <v>2.89452307201671</v>
       </c>
       <c r="F13">
-        <v>1.026317325067708</v>
+        <v>3.162917655983051</v>
       </c>
       <c r="G13">
-        <v>0.002303856061437034</v>
+        <v>0.0006785415835796068</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.392684256368284</v>
+        <v>10.60315633985687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.002227720644000897</v>
+        <v>0.01192211160192613</v>
       </c>
       <c r="E14">
-        <v>0.7077004683360428</v>
+        <v>2.829990385389266</v>
       </c>
       <c r="F14">
-        <v>1.012466350817789</v>
+        <v>3.098209602540294</v>
       </c>
       <c r="G14">
-        <v>0.002304690572135448</v>
+        <v>0.0006801693578381495</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.346373501059304</v>
+        <v>10.38479363018229</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002203079946879072</v>
+        <v>0.01171208091424347</v>
       </c>
       <c r="E15">
-        <v>0.6999402271471666</v>
+        <v>2.790797357017979</v>
       </c>
       <c r="F15">
-        <v>1.003992371776604</v>
+        <v>3.058800812428132</v>
       </c>
       <c r="G15">
-        <v>0.002305204582881486</v>
+        <v>0.0006811656135361544</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.31804063982969</v>
+        <v>10.25183258971811</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002062316590965452</v>
+        <v>0.01055715331135509</v>
       </c>
       <c r="E16">
-        <v>0.6555490890936539</v>
+        <v>2.570924132985738</v>
       </c>
       <c r="F16">
-        <v>0.9555854069585621</v>
+        <v>2.83619934893477</v>
       </c>
       <c r="G16">
-        <v>0.002308193939339283</v>
+        <v>0.0006868667236991122</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.15618949106215</v>
+        <v>9.501180815391194</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.00197633221307747</v>
+        <v>0.009887510818371581</v>
       </c>
       <c r="E17">
-        <v>0.6283848123191689</v>
+        <v>2.439845517651165</v>
       </c>
       <c r="F17">
-        <v>0.9260251098173171</v>
+        <v>2.702281680383749</v>
       </c>
       <c r="G17">
-        <v>0.00231006697917523</v>
+        <v>0.000690361341600406</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.057351167739625</v>
+        <v>9.049894410862919</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001927002019428414</v>
+        <v>0.009514980397314687</v>
       </c>
       <c r="E18">
-        <v>0.6127846016899667</v>
+        <v>2.365701617315594</v>
       </c>
       <c r="F18">
-        <v>0.9090720897889355</v>
+        <v>2.626135773823904</v>
       </c>
       <c r="G18">
-        <v>0.002311158739864443</v>
+        <v>0.0006923719131901596</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.000665896692567</v>
+        <v>8.79339336534423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001910320321343306</v>
+        <v>0.009390873476407435</v>
       </c>
       <c r="E19">
-        <v>0.6075066487270959</v>
+        <v>2.340799178541076</v>
       </c>
       <c r="F19">
-        <v>0.9033404933890523</v>
+        <v>2.600497178597323</v>
       </c>
       <c r="G19">
-        <v>0.002311530874994706</v>
+        <v>0.000693052895890151</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.981501180670932</v>
+        <v>8.707044974998723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001985472159223178</v>
+        <v>0.00995745327893971</v>
       </c>
       <c r="E20">
-        <v>0.6312739907923657</v>
+        <v>2.453666606034687</v>
       </c>
       <c r="F20">
-        <v>0.9291667394193155</v>
+        <v>2.716444424735187</v>
       </c>
       <c r="G20">
-        <v>0.002309866097719104</v>
+        <v>0.000689989309964449</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.067855660969713</v>
+        <v>9.09761035659443</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002239544717282271</v>
+        <v>0.01202375752425411</v>
       </c>
       <c r="E21">
-        <v>0.7114231643078313</v>
+        <v>2.848874331676143</v>
       </c>
       <c r="F21">
-        <v>1.016532600446681</v>
+        <v>3.11716806728532</v>
       </c>
       <c r="G21">
-        <v>0.002304444862416544</v>
+        <v>0.0006796914191595373</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.359969033151742</v>
+        <v>10.44876478360027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.002406930070236513</v>
+        <v>0.01352510470984569</v>
       </c>
       <c r="E22">
-        <v>0.7640425772890183</v>
+        <v>3.121746484625987</v>
       </c>
       <c r="F22">
-        <v>1.074083505283085</v>
+        <v>3.388961998781184</v>
       </c>
       <c r="G22">
-        <v>0.002301029401397889</v>
+        <v>0.0006729296473790117</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.552389396738079</v>
+        <v>11.36640331357137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.002317460720473008</v>
+        <v>0.01270784654396095</v>
       </c>
       <c r="E23">
-        <v>0.7359357237643849</v>
+        <v>2.97458337318669</v>
       </c>
       <c r="F23">
-        <v>1.043325465387227</v>
+        <v>3.242882952692611</v>
       </c>
       <c r="G23">
-        <v>0.002302840664476058</v>
+        <v>0.000676543403700369</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.449550766765867</v>
+        <v>10.87308314478946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.001981339669695714</v>
+        <v>0.009925793883219569</v>
       </c>
       <c r="E24">
-        <v>0.6299677408470501</v>
+        <v>2.447414342894518</v>
       </c>
       <c r="F24">
-        <v>0.9277462792848041</v>
+        <v>2.710038836878795</v>
       </c>
       <c r="G24">
-        <v>0.002309956869656864</v>
+        <v>0.0006901575004868923</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.06310614965048</v>
+        <v>9.076028865477952</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.001623465342587949</v>
+        <v>0.007395808202645071</v>
       </c>
       <c r="E25">
-        <v>0.5165662124021964</v>
+        <v>1.925385879019359</v>
       </c>
       <c r="F25">
-        <v>0.804951376280016</v>
+        <v>2.168159383477573</v>
       </c>
       <c r="G25">
-        <v>0.002318185404698143</v>
+        <v>0.0007048771891287053</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.652501122830699</v>
+        <v>7.252194421940487</v>
       </c>
     </row>
   </sheetData>
